--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -277,12 +277,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -296,10 +296,10 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="D20" activeCell="D20"/>
+      <selection sqref="G3" activeCell="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" customHeight="true" defaultRowHeight="15"/>
@@ -310,6 +310,7 @@
     <col max="4" min="4" style="2" width="39.5703125" customWidth="true"/>
     <col max="5" min="5" style="2" width="77.7109375" customWidth="true"/>
     <col max="6" min="6" style="1" width="12.5703125" customWidth="true"/>
+    <col max="7" min="7" style="0" width="12.5703125"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="true" ht="15.75">
@@ -355,6 +356,9 @@
       <c r="F3" s="3" t="n">
         <v>182.99</v>
       </c>
+      <c r="G3" s="8" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" customHeight="true" ht="16.5">
       <c r="A4" s="3"/>
@@ -365,11 +369,14 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>215.36</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customHeight="true" ht="15.75">
@@ -387,6 +394,9 @@
       <c r="F5" s="3" t="n">
         <v>265.57</v>
       </c>
+      <c r="G5" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customHeight="true" ht="15.75">
       <c r="A6" s="3"/>
@@ -417,6 +427,9 @@
       <c r="F7" s="3" t="n">
         <v>166.47</v>
       </c>
+      <c r="G7" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customHeight="true" ht="15.75">
       <c r="A8" s="3"/>
@@ -433,6 +446,9 @@
       <c r="F8" s="3" t="n">
         <v>168.25</v>
       </c>
+      <c r="G8" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customHeight="true" ht="15.75">
       <c r="A9" s="3"/>
@@ -449,6 +465,9 @@
       <c r="F9" s="3" t="n">
         <v>132.88</v>
       </c>
+      <c r="G9" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customHeight="true" ht="15.75">
       <c r="A10" s="3" t="s">
@@ -493,6 +512,9 @@
       <c r="F12" s="3" t="n">
         <v>2700.79</v>
       </c>
+      <c r="G12" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customHeight="true" ht="15.75">
       <c r="A13" s="3"/>
@@ -509,6 +531,9 @@
       <c r="F13" s="3" t="n">
         <v>3100.33</v>
       </c>
+      <c r="G13" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customHeight="true" ht="15.75">
       <c r="A14" s="3"/>
@@ -525,6 +550,9 @@
       <c r="F14" s="3" t="n">
         <v>1850.42</v>
       </c>
+      <c r="G14" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customHeight="true" ht="15.75">
       <c r="A15" s="3"/>
@@ -555,6 +583,9 @@
       <c r="F16" s="3" t="n">
         <v>420.78</v>
       </c>
+      <c r="G16" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customHeight="true" ht="15.75">
       <c r="A17" s="3"/>
@@ -571,6 +602,9 @@
       <c r="F17" s="3" t="n">
         <v>440.11</v>
       </c>
+      <c r="G17" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customHeight="true" ht="15.75">
       <c r="A18" s="3"/>
@@ -587,11 +621,14 @@
       <c r="F18" s="3" t="n">
         <v>520.08</v>
       </c>
+      <c r="G18" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customHeight="true" ht="15.75">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" customHeight="true" ht="15.75"/>
     <row r="21" customHeight="true" ht="15.75"/>
